--- a/StoveOpt/tests/Stove_test_Geometry.xlsx
+++ b/StoveOpt/tests/Stove_test_Geometry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oregon_State\Spring_2019\Soft_dev_eng\StoveOpt\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oregon_State\Spring_2019\Soft_dev_eng\StoveOpt\StoveOpt\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D61DC-1259-4841-8562-38F45AC80BB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F41EB-A9D5-4ACF-A544-5CDA9284D49C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D0F77571-F344-4911-9ED7-19CABFB8BC85}"/>
   </bookViews>
@@ -2673,7 +2673,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2710,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>Intermediate!C2*(1/100)</f>
@@ -2733,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <f>Intermediate!C3*(1/100)</f>
@@ -2756,7 +2756,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <f>Intermediate!C4*(1/100)</f>
@@ -2779,7 +2779,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <f>Intermediate!C5*(1/100)</f>
@@ -2802,7 +2802,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <f>Intermediate!C6*(1/100)</f>
@@ -2825,7 +2825,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <f>Intermediate!C7*(1/100)</f>
@@ -2848,7 +2848,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <f>Intermediate!C8*(1/100)</f>
@@ -2871,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <f>Intermediate!C9*(1/100)</f>
@@ -2894,7 +2894,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
         <f>Intermediate!C10*(1/100)</f>
@@ -2917,7 +2917,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <f>Intermediate!C11*(1/100)</f>
@@ -2940,7 +2940,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <f>Intermediate!C12*(1/100)</f>
@@ -2963,7 +2963,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <f>Intermediate!C13*(1/100)</f>
@@ -2986,7 +2986,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <f>Intermediate!C14*(1/100)</f>
@@ -3009,7 +3009,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <f>Intermediate!C15*(1/100)</f>
@@ -3032,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <f>Intermediate!C16*(1/100)</f>
@@ -3055,7 +3055,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <f>Intermediate!C17*(1/100)</f>
